--- a/mppsteel/data/import_data/H2 Model.xlsx
+++ b/mppsteel/data/import_data/H2 Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://systemiq.sharepoint.com/Projects/MPP0006/Shared Documents/6_ Working documents/03 Steel python model/Data Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{8BAA13B3-587C-4389-A8AE-E515538555A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A472AB1-E0CA-4762-B0C0-B3D1D1BB4507}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{8BAA13B3-587C-4389-A8AE-E515538555A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63FD7D5C-9F2C-41A8-867D-F3075294E4C3}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{7B29A77D-36B9-42F5-9758-F85D10FA722F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4260" uniqueCount="33">
   <si>
     <t>Variable</t>
   </si>
@@ -528,13 +528,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04DB09A-273E-43B2-802C-C103259ABCD4}">
   <dimension ref="A1:AK661"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241:A661"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="8.9375" style="1"/>
+    <col min="1" max="1" width="8.87890625" style="1"/>
+    <col min="2" max="2" width="38.17578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.87890625" style="1"/>
+    <col min="4" max="4" width="25.3515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.87890625" style="1"/>
+    <col min="6" max="6" width="9.64453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -27771,6 +27777,9 @@
       </c>
     </row>
     <row r="242" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A242" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B242" s="1" t="s">
         <v>5</v>
       </c>
@@ -27881,6 +27890,9 @@
       </c>
     </row>
     <row r="243" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A243" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B243" s="1" t="s">
         <v>5</v>
       </c>
@@ -27991,6 +28003,9 @@
       </c>
     </row>
     <row r="244" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A244" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B244" s="1" t="s">
         <v>5</v>
       </c>
@@ -28101,6 +28116,9 @@
       </c>
     </row>
     <row r="245" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A245" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B245" s="1" t="s">
         <v>5</v>
       </c>
@@ -28211,6 +28229,9 @@
       </c>
     </row>
     <row r="246" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A246" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B246" s="1" t="s">
         <v>5</v>
       </c>
@@ -28321,6 +28342,9 @@
       </c>
     </row>
     <row r="247" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A247" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B247" s="1" t="s">
         <v>5</v>
       </c>
@@ -28431,6 +28455,9 @@
       </c>
     </row>
     <row r="248" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A248" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B248" s="1" t="s">
         <v>5</v>
       </c>
@@ -28541,6 +28568,9 @@
       </c>
     </row>
     <row r="249" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A249" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B249" s="1" t="s">
         <v>5</v>
       </c>
@@ -28651,6 +28681,9 @@
       </c>
     </row>
     <row r="250" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A250" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B250" s="1" t="s">
         <v>5</v>
       </c>
@@ -28761,6 +28794,9 @@
       </c>
     </row>
     <row r="251" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A251" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B251" s="1" t="s">
         <v>5</v>
       </c>
@@ -28871,6 +28907,9 @@
       </c>
     </row>
     <row r="252" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A252" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B252" s="1" t="s">
         <v>5</v>
       </c>
@@ -28981,6 +29020,9 @@
       </c>
     </row>
     <row r="253" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A253" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B253" s="1" t="s">
         <v>5</v>
       </c>
@@ -29091,6 +29133,9 @@
       </c>
     </row>
     <row r="254" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A254" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B254" s="1" t="s">
         <v>15</v>
       </c>
@@ -29201,6 +29246,9 @@
       </c>
     </row>
     <row r="255" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A255" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B255" s="1" t="s">
         <v>15</v>
       </c>
@@ -29311,6 +29359,9 @@
       </c>
     </row>
     <row r="256" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A256" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B256" s="1" t="s">
         <v>15</v>
       </c>
@@ -29420,7 +29471,10 @@
         <v>0.30082385855059912</v>
       </c>
     </row>
-    <row r="257" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A257" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B257" s="1" t="s">
         <v>15</v>
       </c>
@@ -29530,7 +29584,10 @@
         <v>0.18159327622890006</v>
       </c>
     </row>
-    <row r="258" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A258" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B258" s="1" t="s">
         <v>15</v>
       </c>
@@ -29640,7 +29697,10 @@
         <v>0.11928234254960568</v>
       </c>
     </row>
-    <row r="259" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A259" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B259" s="1" t="s">
         <v>15</v>
       </c>
@@ -29750,7 +29810,10 @@
         <v>0.23846940851506282</v>
       </c>
     </row>
-    <row r="260" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A260" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B260" s="1" t="s">
         <v>15</v>
       </c>
@@ -29860,7 +29923,10 @@
         <v>0.18205192393322767</v>
       </c>
     </row>
-    <row r="261" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A261" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B261" s="1" t="s">
         <v>15</v>
       </c>
@@ -29970,7 +30036,10 @@
         <v>0.18205192393322767</v>
       </c>
     </row>
-    <row r="262" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A262" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B262" s="1" t="s">
         <v>15</v>
       </c>
@@ -30080,7 +30149,10 @@
         <v>0.18205192393322767</v>
       </c>
     </row>
-    <row r="263" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A263" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B263" s="1" t="s">
         <v>15</v>
       </c>
@@ -30190,7 +30262,10 @@
         <v>0.12379530827459483</v>
       </c>
     </row>
-    <row r="264" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A264" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B264" s="1" t="s">
         <v>15</v>
       </c>
@@ -30300,7 +30375,10 @@
         <v>0.12379530827459483</v>
       </c>
     </row>
-    <row r="265" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A265" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B265" s="1" t="s">
         <v>15</v>
       </c>
@@ -30410,7 +30488,10 @@
         <v>0.12379530827459483</v>
       </c>
     </row>
-    <row r="266" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A266" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B266" s="1" t="s">
         <v>16</v>
       </c>
@@ -30520,7 +30601,10 @@
         <v>1.0368963822377644</v>
       </c>
     </row>
-    <row r="267" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A267" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B267" s="1" t="s">
         <v>16</v>
       </c>
@@ -30630,7 +30714,10 @@
         <v>0.93244284999928406</v>
       </c>
     </row>
-    <row r="268" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A268" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B268" s="1" t="s">
         <v>16</v>
       </c>
@@ -30740,7 +30827,10 @@
         <v>1.1413499144762442</v>
       </c>
     </row>
-    <row r="269" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A269" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B269" s="1" t="s">
         <v>16</v>
       </c>
@@ -30850,7 +30940,10 @@
         <v>0.99440877097264779</v>
       </c>
     </row>
-    <row r="270" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A270" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B270" s="1" t="s">
         <v>16</v>
       </c>
@@ -30960,7 +31053,10 @@
         <v>0.92211693806263584</v>
       </c>
     </row>
-    <row r="271" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A271" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B271" s="1" t="s">
         <v>16</v>
       </c>
@@ -31070,7 +31166,10 @@
         <v>1.0667006038826599</v>
       </c>
     </row>
-    <row r="272" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A272" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B272" s="1" t="s">
         <v>16</v>
       </c>
@@ -31180,7 +31279,10 @@
         <v>3.1849024585455696</v>
       </c>
     </row>
-    <row r="273" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A273" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B273" s="1" t="s">
         <v>16</v>
       </c>
@@ -31290,7 +31392,10 @@
         <v>2.8306560426386009</v>
       </c>
     </row>
-    <row r="274" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A274" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B274" s="1" t="s">
         <v>16</v>
       </c>
@@ -31400,7 +31505,10 @@
         <v>3.5714016188130491</v>
       </c>
     </row>
-    <row r="275" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A275" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B275" s="1" t="s">
         <v>16</v>
       </c>
@@ -31510,7 +31618,10 @@
         <v>3.1849024585455696</v>
       </c>
     </row>
-    <row r="276" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A276" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B276" s="1" t="s">
         <v>16</v>
       </c>
@@ -31620,7 +31731,10 @@
         <v>2.8306560426386009</v>
       </c>
     </row>
-    <row r="277" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A277" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B277" s="1" t="s">
         <v>16</v>
       </c>
@@ -31730,7 +31844,10 @@
         <v>3.5714016188130491</v>
       </c>
     </row>
-    <row r="278" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A278" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B278" s="1" t="s">
         <v>17</v>
       </c>
@@ -31840,7 +31957,10 @@
         <v>1.1510689426190326</v>
       </c>
     </row>
-    <row r="279" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A279" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B279" s="1" t="s">
         <v>17</v>
       </c>
@@ -31950,7 +32070,10 @@
         <v>0.4107305789810558</v>
       </c>
     </row>
-    <row r="280" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A280" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B280" s="1" t="s">
         <v>17</v>
       </c>
@@ -32060,7 +32183,10 @@
         <v>1.9881720110239804</v>
       </c>
     </row>
-    <row r="281" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A281" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B281" s="1" t="s">
         <v>17</v>
       </c>
@@ -32170,7 +32296,10 @@
         <v>0.41686615986817471</v>
       </c>
     </row>
-    <row r="282" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A282" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B282" s="1" t="s">
         <v>17</v>
       </c>
@@ -32280,7 +32409,10 @@
         <v>0.30001316137040079</v>
       </c>
     </row>
-    <row r="283" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A283" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B283" s="1" t="s">
         <v>17</v>
       </c>
@@ -32390,7 +32522,10 @@
         <v>0.53554574669785981</v>
       </c>
     </row>
-    <row r="284" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A284" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B284" s="1" t="s">
         <v>17</v>
       </c>
@@ -32500,7 +32635,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A285" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B285" s="1" t="s">
         <v>17</v>
       </c>
@@ -32610,7 +32748,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A286" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B286" s="1" t="s">
         <v>17</v>
       </c>
@@ -32720,7 +32861,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A287" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B287" s="1" t="s">
         <v>17</v>
       </c>
@@ -32830,7 +32974,10 @@
         <v>1.2363127978799122</v>
       </c>
     </row>
-    <row r="288" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A288" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B288" s="1" t="s">
         <v>17</v>
       </c>
@@ -32940,7 +33087,10 @@
         <v>0.51365592935143156</v>
       </c>
     </row>
-    <row r="289" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A289" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B289" s="1" t="s">
         <v>17</v>
       </c>
@@ -33050,7 +33200,10 @@
         <v>2.0607608836618327</v>
       </c>
     </row>
-    <row r="290" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A290" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B290" s="1" t="s">
         <v>18</v>
       </c>
@@ -33160,7 +33313,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A291" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B291" s="1" t="s">
         <v>18</v>
       </c>
@@ -33270,7 +33426,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A292" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B292" s="1" t="s">
         <v>18</v>
       </c>
@@ -33380,7 +33539,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A293" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B293" s="1" t="s">
         <v>18</v>
       </c>
@@ -33490,7 +33652,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A294" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B294" s="1" t="s">
         <v>18</v>
       </c>
@@ -33600,7 +33765,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A295" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B295" s="1" t="s">
         <v>18</v>
       </c>
@@ -33710,7 +33878,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A296" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B296" s="1" t="s">
         <v>18</v>
       </c>
@@ -33820,7 +33991,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A297" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B297" s="1" t="s">
         <v>18</v>
       </c>
@@ -33930,7 +34104,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A298" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B298" s="1" t="s">
         <v>18</v>
       </c>
@@ -34040,7 +34217,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A299" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B299" s="1" t="s">
         <v>18</v>
       </c>
@@ -34150,7 +34330,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A300" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B300" s="1" t="s">
         <v>18</v>
       </c>
@@ -34260,7 +34443,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A301" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B301" s="1" t="s">
         <v>18</v>
       </c>
@@ -34370,7 +34556,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A302" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B302" s="1" t="s">
         <v>5</v>
       </c>
@@ -34480,7 +34669,10 @@
         <v>2.4134805701714233</v>
       </c>
     </row>
-    <row r="303" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A303" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B303" s="1" t="s">
         <v>5</v>
       </c>
@@ -34590,7 +34782,10 @@
         <v>1.4231504778110879</v>
       </c>
     </row>
-    <row r="304" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A304" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B304" s="1" t="s">
         <v>5</v>
       </c>
@@ -34700,7 +34895,10 @@
         <v>3.4692795335064259</v>
       </c>
     </row>
-    <row r="305" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A305" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B305" s="1" t="s">
         <v>5</v>
       </c>
@@ -34810,7 +35008,10 @@
         <v>2.1119518520843972</v>
       </c>
     </row>
-    <row r="306" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A306" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B306" s="1" t="s">
         <v>5</v>
       </c>
@@ -34920,7 +35121,10 @@
         <v>1.7054254076714093</v>
       </c>
     </row>
-    <row r="307" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A307" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B307" s="1" t="s">
         <v>5</v>
       </c>
@@ -35030,7 +35234,10 @@
         <v>2.5105610479603713</v>
       </c>
     </row>
-    <row r="308" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A308" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B308" s="1" t="s">
         <v>5</v>
       </c>
@@ -35140,7 +35347,10 @@
         <v>5.007861302395062</v>
       </c>
     </row>
-    <row r="309" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A309" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B309" s="1" t="s">
         <v>5</v>
       </c>
@@ -35250,7 +35460,10 @@
         <v>4.5679806713954996</v>
       </c>
     </row>
-    <row r="310" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A310" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B310" s="1" t="s">
         <v>5</v>
       </c>
@@ -35360,7 +35573,10 @@
         <v>5.4339645904657585</v>
       </c>
     </row>
-    <row r="311" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A311" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B311" s="1" t="s">
         <v>5</v>
       </c>
@@ -35470,7 +35686,10 @@
         <v>6.022886034583844</v>
       </c>
     </row>
-    <row r="312" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A312" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B312" s="1" t="s">
         <v>5</v>
       </c>
@@ -35580,7 +35799,10 @@
         <v>4.9228429185245473</v>
       </c>
     </row>
-    <row r="313" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A313" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B313" s="1" t="s">
         <v>5</v>
       </c>
@@ -35690,7 +35912,10 @@
         <v>7.2340412041595439</v>
       </c>
     </row>
-    <row r="314" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A314" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B314" s="1" t="s">
         <v>15</v>
       </c>
@@ -35800,7 +36025,10 @@
         <v>0.36235976657693764</v>
       </c>
     </row>
-    <row r="315" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A315" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B315" s="1" t="s">
         <v>15</v>
       </c>
@@ -35910,7 +36138,10 @@
         <v>0.2252097702112707</v>
       </c>
     </row>
-    <row r="316" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A316" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B316" s="1" t="s">
         <v>15</v>
       </c>
@@ -36020,7 +36251,10 @@
         <v>0.49007396477572546</v>
       </c>
     </row>
-    <row r="317" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A317" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B317" s="1" t="s">
         <v>15</v>
       </c>
@@ -36130,7 +36364,10 @@
         <v>0.3960053782747523</v>
       </c>
     </row>
-    <row r="318" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A318" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B318" s="1" t="s">
         <v>15</v>
       </c>
@@ -36240,7 +36477,10 @@
         <v>0.2288465425538041</v>
       </c>
     </row>
-    <row r="319" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A319" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B319" s="1" t="s">
         <v>15</v>
       </c>
@@ -36350,7 +36590,10 @@
         <v>0.52003670117679657</v>
       </c>
     </row>
-    <row r="320" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A320" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B320" s="1" t="s">
         <v>15</v>
       </c>
@@ -36460,7 +36703,10 @@
         <v>0.27299580091190973</v>
       </c>
     </row>
-    <row r="321" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A321" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B321" s="1" t="s">
         <v>15</v>
       </c>
@@ -36570,7 +36816,10 @@
         <v>0.10945759426784445</v>
       </c>
     </row>
-    <row r="322" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A322" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B322" s="1" t="s">
         <v>15</v>
       </c>
@@ -36680,7 +36929,10 @@
         <v>0.40523817376367061</v>
       </c>
     </row>
-    <row r="323" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A323" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B323" s="1" t="s">
         <v>15</v>
       </c>
@@ -36790,7 +37042,10 @@
         <v>0.17471731258362225</v>
       </c>
     </row>
-    <row r="324" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A324" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B324" s="1" t="s">
         <v>15</v>
       </c>
@@ -36900,7 +37155,10 @@
         <v>7.0052860331420455E-2</v>
       </c>
     </row>
-    <row r="325" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A325" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B325" s="1" t="s">
         <v>15</v>
       </c>
@@ -37010,7 +37268,10 @@
         <v>0.25935243120874923</v>
       </c>
     </row>
-    <row r="326" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A326" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B326" s="1" t="s">
         <v>16</v>
       </c>
@@ -37120,7 +37381,10 @@
         <v>0.98941582664048133</v>
       </c>
     </row>
-    <row r="327" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A327" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B327" s="1" t="s">
         <v>16</v>
       </c>
@@ -37230,7 +37494,10 @@
         <v>0.90296230456218785</v>
       </c>
     </row>
-    <row r="328" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A328" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B328" s="1" t="s">
         <v>16</v>
       </c>
@@ -37340,7 +37607,10 @@
         <v>1.0758693487187747</v>
       </c>
     </row>
-    <row r="329" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A329" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B329" s="1" t="s">
         <v>16</v>
       </c>
@@ -37450,7 +37720,10 @@
         <v>1.3088281209084187</v>
       </c>
     </row>
-    <row r="330" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A330" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B330" s="1" t="s">
         <v>16</v>
       </c>
@@ -37560,7 +37833,10 @@
         <v>1.1611239484714606</v>
       </c>
     </row>
-    <row r="331" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A331" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B331" s="1" t="s">
         <v>16</v>
       </c>
@@ -37670,7 +37946,10 @@
         <v>1.4565322933453768</v>
       </c>
     </row>
-    <row r="332" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A332" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B332" s="1" t="s">
         <v>16</v>
       </c>
@@ -37780,7 +38059,10 @@
         <v>4.6118559241203094</v>
       </c>
     </row>
-    <row r="333" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A333" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B333" s="1" t="s">
         <v>16</v>
       </c>
@@ -37890,7 +38172,10 @@
         <v>4.3391341288416951</v>
       </c>
     </row>
-    <row r="334" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A334" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B334" s="1" t="s">
         <v>16</v>
       </c>
@@ -38000,7 +38285,10 @@
         <v>4.9139278892889617</v>
       </c>
     </row>
-    <row r="335" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A335" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B335" s="1" t="s">
         <v>16</v>
       </c>
@@ -38110,7 +38398,10 @@
         <v>4.6118559241203094</v>
       </c>
     </row>
-    <row r="336" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A336" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B336" s="1" t="s">
         <v>16</v>
       </c>
@@ -38220,7 +38511,10 @@
         <v>4.3391341288416951</v>
       </c>
     </row>
-    <row r="337" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A337" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B337" s="1" t="s">
         <v>16</v>
       </c>
@@ -38330,7 +38624,10 @@
         <v>4.9139278892889617</v>
       </c>
     </row>
-    <row r="338" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A338" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B338" s="1" t="s">
         <v>17</v>
       </c>
@@ -38440,7 +38737,10 @@
         <v>1.1510689426190326</v>
       </c>
     </row>
-    <row r="339" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A339" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B339" s="1" t="s">
         <v>17</v>
       </c>
@@ -38550,7 +38850,10 @@
         <v>0.4107305789810558</v>
       </c>
     </row>
-    <row r="340" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A340" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B340" s="1" t="s">
         <v>17</v>
       </c>
@@ -38660,7 +38963,10 @@
         <v>1.9881720110239804</v>
       </c>
     </row>
-    <row r="341" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A341" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B341" s="1" t="s">
         <v>17</v>
       </c>
@@ -38770,7 +39076,10 @@
         <v>0.44076396459904071</v>
       </c>
     </row>
-    <row r="342" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A342" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B342" s="1" t="s">
         <v>17</v>
       </c>
@@ -38880,7 +39189,10 @@
         <v>0.3190916889886779</v>
       </c>
     </row>
-    <row r="343" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A343" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B343" s="1" t="s">
         <v>17</v>
       </c>
@@ -38990,7 +39302,10 @@
         <v>0.56395478983926906</v>
       </c>
     </row>
-    <row r="344" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A344" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B344" s="1" t="s">
         <v>17</v>
       </c>
@@ -39100,7 +39415,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A345" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B345" s="1" t="s">
         <v>17</v>
       </c>
@@ -39210,7 +39528,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A346" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B346" s="1" t="s">
         <v>17</v>
       </c>
@@ -39320,7 +39641,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A347" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B347" s="1" t="s">
         <v>17</v>
       </c>
@@ -39430,7 +39754,10 @@
         <v>1.2363127978799122</v>
       </c>
     </row>
-    <row r="348" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A348" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B348" s="1" t="s">
         <v>17</v>
       </c>
@@ -39540,7 +39867,10 @@
         <v>0.51365592935143156</v>
       </c>
     </row>
-    <row r="349" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A349" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B349" s="1" t="s">
         <v>17</v>
       </c>
@@ -39650,7 +39980,10 @@
         <v>2.0607608836618327</v>
       </c>
     </row>
-    <row r="350" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A350" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B350" s="1" t="s">
         <v>18</v>
       </c>
@@ -39760,7 +40093,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A351" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B351" s="1" t="s">
         <v>18</v>
       </c>
@@ -39870,7 +40206,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A352" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B352" s="1" t="s">
         <v>18</v>
       </c>
@@ -39980,7 +40319,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A353" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B353" s="1" t="s">
         <v>18</v>
       </c>
@@ -40090,7 +40432,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A354" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B354" s="1" t="s">
         <v>18</v>
       </c>
@@ -40200,7 +40545,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A355" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B355" s="1" t="s">
         <v>18</v>
       </c>
@@ -40310,7 +40658,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A356" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B356" s="1" t="s">
         <v>18</v>
       </c>
@@ -40420,7 +40771,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A357" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B357" s="1" t="s">
         <v>18</v>
       </c>
@@ -40530,7 +40884,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A358" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B358" s="1" t="s">
         <v>18</v>
       </c>
@@ -40640,7 +40997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A359" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B359" s="1" t="s">
         <v>18</v>
       </c>
@@ -40750,7 +41110,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A360" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B360" s="1" t="s">
         <v>18</v>
       </c>
@@ -40860,7 +41223,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A361" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B361" s="1" t="s">
         <v>18</v>
       </c>
@@ -40970,7 +41336,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A362" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B362" s="1" t="s">
         <v>5</v>
       </c>
@@ -41080,7 +41449,10 @@
         <v>2.4134805701714233</v>
       </c>
     </row>
-    <row r="363" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A363" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B363" s="1" t="s">
         <v>5</v>
       </c>
@@ -41190,7 +41562,10 @@
         <v>1.4231504778110879</v>
       </c>
     </row>
-    <row r="364" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A364" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B364" s="1" t="s">
         <v>5</v>
       </c>
@@ -41300,7 +41675,10 @@
         <v>3.4692795335064259</v>
       </c>
     </row>
-    <row r="365" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A365" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B365" s="1" t="s">
         <v>5</v>
       </c>
@@ -41410,7 +41788,10 @@
         <v>2.1119518520843972</v>
       </c>
     </row>
-    <row r="366" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A366" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B366" s="1" t="s">
         <v>5</v>
       </c>
@@ -41520,7 +41901,10 @@
         <v>1.7054254076714093</v>
       </c>
     </row>
-    <row r="367" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A367" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B367" s="1" t="s">
         <v>5</v>
       </c>
@@ -41630,7 +42014,10 @@
         <v>2.5105610479603713</v>
       </c>
     </row>
-    <row r="368" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A368" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B368" s="1" t="s">
         <v>5</v>
       </c>
@@ -41740,7 +42127,10 @@
         <v>5.007861302395062</v>
       </c>
     </row>
-    <row r="369" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A369" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B369" s="1" t="s">
         <v>5</v>
       </c>
@@ -41850,7 +42240,10 @@
         <v>4.5679806713954996</v>
       </c>
     </row>
-    <row r="370" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A370" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B370" s="1" t="s">
         <v>5</v>
       </c>
@@ -41960,7 +42353,10 @@
         <v>5.4339645904657585</v>
       </c>
     </row>
-    <row r="371" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A371" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B371" s="1" t="s">
         <v>5</v>
       </c>
@@ -42070,7 +42466,10 @@
         <v>6.022886034583844</v>
       </c>
     </row>
-    <row r="372" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A372" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B372" s="1" t="s">
         <v>5</v>
       </c>
@@ -42180,7 +42579,10 @@
         <v>4.9228429185245473</v>
       </c>
     </row>
-    <row r="373" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A373" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B373" s="1" t="s">
         <v>5</v>
       </c>
@@ -42290,7 +42692,10 @@
         <v>7.2340412041595439</v>
       </c>
     </row>
-    <row r="374" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A374" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B374" s="1" t="s">
         <v>15</v>
       </c>
@@ -42400,7 +42805,10 @@
         <v>0.36235976657693764</v>
       </c>
     </row>
-    <row r="375" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A375" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B375" s="1" t="s">
         <v>15</v>
       </c>
@@ -42510,7 +42918,10 @@
         <v>0.2252097702112707</v>
       </c>
     </row>
-    <row r="376" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A376" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B376" s="1" t="s">
         <v>15</v>
       </c>
@@ -42620,7 +43031,10 @@
         <v>0.49007396477572546</v>
       </c>
     </row>
-    <row r="377" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A377" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B377" s="1" t="s">
         <v>15</v>
       </c>
@@ -42730,7 +43144,10 @@
         <v>0.3960053782747523</v>
       </c>
     </row>
-    <row r="378" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A378" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B378" s="1" t="s">
         <v>15</v>
       </c>
@@ -42840,7 +43257,10 @@
         <v>0.2288465425538041</v>
       </c>
     </row>
-    <row r="379" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A379" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B379" s="1" t="s">
         <v>15</v>
       </c>
@@ -42950,7 +43370,10 @@
         <v>0.52003670117679657</v>
       </c>
     </row>
-    <row r="380" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A380" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B380" s="1" t="s">
         <v>15</v>
       </c>
@@ -43060,7 +43483,10 @@
         <v>0.27299580091190973</v>
       </c>
     </row>
-    <row r="381" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A381" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B381" s="1" t="s">
         <v>15</v>
       </c>
@@ -43170,7 +43596,10 @@
         <v>0.10945759426784445</v>
       </c>
     </row>
-    <row r="382" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A382" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B382" s="1" t="s">
         <v>15</v>
       </c>
@@ -43280,7 +43709,10 @@
         <v>0.40523817376367061</v>
       </c>
     </row>
-    <row r="383" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A383" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B383" s="1" t="s">
         <v>15</v>
       </c>
@@ -43390,7 +43822,10 @@
         <v>0.17471731258362225</v>
       </c>
     </row>
-    <row r="384" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A384" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B384" s="1" t="s">
         <v>15</v>
       </c>
@@ -43500,7 +43935,10 @@
         <v>7.0052860331420455E-2</v>
       </c>
     </row>
-    <row r="385" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A385" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B385" s="1" t="s">
         <v>15</v>
       </c>
@@ -43610,7 +44048,10 @@
         <v>0.25935243120874923</v>
       </c>
     </row>
-    <row r="386" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A386" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B386" s="1" t="s">
         <v>16</v>
       </c>
@@ -43720,7 +44161,10 @@
         <v>0.98941582664048133</v>
       </c>
     </row>
-    <row r="387" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A387" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B387" s="1" t="s">
         <v>16</v>
       </c>
@@ -43830,7 +44274,10 @@
         <v>0.90296230456218785</v>
       </c>
     </row>
-    <row r="388" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A388" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B388" s="1" t="s">
         <v>16</v>
       </c>
@@ -43940,7 +44387,10 @@
         <v>1.0758693487187747</v>
       </c>
     </row>
-    <row r="389" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A389" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B389" s="1" t="s">
         <v>16</v>
       </c>
@@ -44050,7 +44500,10 @@
         <v>1.3088281209084187</v>
       </c>
     </row>
-    <row r="390" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A390" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B390" s="1" t="s">
         <v>16</v>
       </c>
@@ -44160,7 +44613,10 @@
         <v>1.1611239484714606</v>
       </c>
     </row>
-    <row r="391" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A391" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B391" s="1" t="s">
         <v>16</v>
       </c>
@@ -44270,7 +44726,10 @@
         <v>1.4565322933453768</v>
       </c>
     </row>
-    <row r="392" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A392" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B392" s="1" t="s">
         <v>16</v>
       </c>
@@ -44380,7 +44839,10 @@
         <v>4.6118559241203094</v>
       </c>
     </row>
-    <row r="393" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A393" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B393" s="1" t="s">
         <v>16</v>
       </c>
@@ -44490,7 +44952,10 @@
         <v>4.3391341288416951</v>
       </c>
     </row>
-    <row r="394" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A394" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B394" s="1" t="s">
         <v>16</v>
       </c>
@@ -44600,7 +45065,10 @@
         <v>4.9139278892889617</v>
       </c>
     </row>
-    <row r="395" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A395" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B395" s="1" t="s">
         <v>16</v>
       </c>
@@ -44710,7 +45178,10 @@
         <v>4.6118559241203094</v>
       </c>
     </row>
-    <row r="396" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A396" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B396" s="1" t="s">
         <v>16</v>
       </c>
@@ -44820,7 +45291,10 @@
         <v>4.3391341288416951</v>
       </c>
     </row>
-    <row r="397" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A397" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B397" s="1" t="s">
         <v>16</v>
       </c>
@@ -44930,7 +45404,10 @@
         <v>4.9139278892889617</v>
       </c>
     </row>
-    <row r="398" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A398" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B398" s="1" t="s">
         <v>17</v>
       </c>
@@ -45040,7 +45517,10 @@
         <v>1.1510689426190326</v>
       </c>
     </row>
-    <row r="399" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A399" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B399" s="1" t="s">
         <v>17</v>
       </c>
@@ -45150,7 +45630,10 @@
         <v>0.4107305789810558</v>
       </c>
     </row>
-    <row r="400" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A400" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B400" s="1" t="s">
         <v>17</v>
       </c>
@@ -45260,7 +45743,10 @@
         <v>1.9881720110239804</v>
       </c>
     </row>
-    <row r="401" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A401" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B401" s="1" t="s">
         <v>17</v>
       </c>
@@ -45370,7 +45856,10 @@
         <v>0.44076396459904071</v>
       </c>
     </row>
-    <row r="402" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A402" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B402" s="1" t="s">
         <v>17</v>
       </c>
@@ -45480,7 +45969,10 @@
         <v>0.3190916889886779</v>
       </c>
     </row>
-    <row r="403" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A403" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B403" s="1" t="s">
         <v>17</v>
       </c>
@@ -45590,7 +46082,10 @@
         <v>0.56395478983926906</v>
       </c>
     </row>
-    <row r="404" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A404" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B404" s="1" t="s">
         <v>17</v>
       </c>
@@ -45700,7 +46195,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A405" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B405" s="1" t="s">
         <v>17</v>
       </c>
@@ -45810,7 +46308,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A406" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B406" s="1" t="s">
         <v>17</v>
       </c>
@@ -45920,7 +46421,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A407" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B407" s="1" t="s">
         <v>17</v>
       </c>
@@ -46030,7 +46534,10 @@
         <v>1.2363127978799122</v>
       </c>
     </row>
-    <row r="408" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A408" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B408" s="1" t="s">
         <v>17</v>
       </c>
@@ -46140,7 +46647,10 @@
         <v>0.51365592935143156</v>
       </c>
     </row>
-    <row r="409" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A409" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B409" s="1" t="s">
         <v>17</v>
       </c>
@@ -46250,7 +46760,10 @@
         <v>2.0607608836618327</v>
       </c>
     </row>
-    <row r="410" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A410" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B410" s="1" t="s">
         <v>18</v>
       </c>
@@ -46360,7 +46873,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A411" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B411" s="1" t="s">
         <v>18</v>
       </c>
@@ -46470,7 +46986,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A412" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B412" s="1" t="s">
         <v>18</v>
       </c>
@@ -46580,7 +47099,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A413" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B413" s="1" t="s">
         <v>18</v>
       </c>
@@ -46690,7 +47212,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A414" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B414" s="1" t="s">
         <v>18</v>
       </c>
@@ -46800,7 +47325,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A415" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B415" s="1" t="s">
         <v>18</v>
       </c>
@@ -46910,7 +47438,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A416" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B416" s="1" t="s">
         <v>18</v>
       </c>
@@ -47020,7 +47551,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A417" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B417" s="1" t="s">
         <v>18</v>
       </c>
@@ -47130,7 +47664,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A418" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B418" s="1" t="s">
         <v>18</v>
       </c>
@@ -47240,7 +47777,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A419" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B419" s="1" t="s">
         <v>18</v>
       </c>
@@ -47350,7 +47890,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A420" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B420" s="1" t="s">
         <v>18</v>
       </c>
@@ -47460,7 +48003,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A421" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B421" s="1" t="s">
         <v>18</v>
       </c>
@@ -47570,7 +48116,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A422" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B422" s="1" t="s">
         <v>5</v>
       </c>
@@ -47680,7 +48229,10 @@
         <v>2.4134805701714233</v>
       </c>
     </row>
-    <row r="423" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A423" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B423" s="1" t="s">
         <v>5</v>
       </c>
@@ -47790,7 +48342,10 @@
         <v>1.4231504778110879</v>
       </c>
     </row>
-    <row r="424" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A424" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B424" s="1" t="s">
         <v>5</v>
       </c>
@@ -47900,7 +48455,10 @@
         <v>3.4692795335064259</v>
       </c>
     </row>
-    <row r="425" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A425" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B425" s="1" t="s">
         <v>5</v>
       </c>
@@ -48010,7 +48568,10 @@
         <v>2.1119518520843972</v>
       </c>
     </row>
-    <row r="426" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A426" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B426" s="1" t="s">
         <v>5</v>
       </c>
@@ -48120,7 +48681,10 @@
         <v>1.7054254076714093</v>
       </c>
     </row>
-    <row r="427" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A427" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B427" s="1" t="s">
         <v>5</v>
       </c>
@@ -48230,7 +48794,10 @@
         <v>2.5105610479603713</v>
       </c>
     </row>
-    <row r="428" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A428" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B428" s="1" t="s">
         <v>5</v>
       </c>
@@ -48340,7 +48907,10 @@
         <v>5.007861302395062</v>
       </c>
     </row>
-    <row r="429" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A429" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B429" s="1" t="s">
         <v>5</v>
       </c>
@@ -48450,7 +49020,10 @@
         <v>4.5679806713954996</v>
       </c>
     </row>
-    <row r="430" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A430" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B430" s="1" t="s">
         <v>5</v>
       </c>
@@ -48560,7 +49133,10 @@
         <v>5.4339645904657585</v>
       </c>
     </row>
-    <row r="431" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A431" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B431" s="1" t="s">
         <v>5</v>
       </c>
@@ -48670,7 +49246,10 @@
         <v>6.022886034583844</v>
       </c>
     </row>
-    <row r="432" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A432" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B432" s="1" t="s">
         <v>5</v>
       </c>
@@ -48780,7 +49359,10 @@
         <v>4.9228429185245473</v>
       </c>
     </row>
-    <row r="433" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A433" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B433" s="1" t="s">
         <v>5</v>
       </c>
@@ -48890,7 +49472,10 @@
         <v>7.2340412041595439</v>
       </c>
     </row>
-    <row r="434" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A434" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B434" s="1" t="s">
         <v>15</v>
       </c>
@@ -49000,7 +49585,10 @@
         <v>0.36235976657693764</v>
       </c>
     </row>
-    <row r="435" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A435" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B435" s="1" t="s">
         <v>15</v>
       </c>
@@ -49110,7 +49698,10 @@
         <v>0.2252097702112707</v>
       </c>
     </row>
-    <row r="436" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A436" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B436" s="1" t="s">
         <v>15</v>
       </c>
@@ -49220,7 +49811,10 @@
         <v>0.49007396477572546</v>
       </c>
     </row>
-    <row r="437" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A437" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B437" s="1" t="s">
         <v>15</v>
       </c>
@@ -49330,7 +49924,10 @@
         <v>0.3960053782747523</v>
       </c>
     </row>
-    <row r="438" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A438" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B438" s="1" t="s">
         <v>15</v>
       </c>
@@ -49440,7 +50037,10 @@
         <v>0.2288465425538041</v>
       </c>
     </row>
-    <row r="439" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A439" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B439" s="1" t="s">
         <v>15</v>
       </c>
@@ -49550,7 +50150,10 @@
         <v>0.52003670117679657</v>
       </c>
     </row>
-    <row r="440" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A440" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B440" s="1" t="s">
         <v>15</v>
       </c>
@@ -49660,7 +50263,10 @@
         <v>0.27299580091190973</v>
       </c>
     </row>
-    <row r="441" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A441" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B441" s="1" t="s">
         <v>15</v>
       </c>
@@ -49770,7 +50376,10 @@
         <v>0.10945759426784445</v>
       </c>
     </row>
-    <row r="442" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A442" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B442" s="1" t="s">
         <v>15</v>
       </c>
@@ -49880,7 +50489,10 @@
         <v>0.40523817376367061</v>
       </c>
     </row>
-    <row r="443" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A443" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B443" s="1" t="s">
         <v>15</v>
       </c>
@@ -49990,7 +50602,10 @@
         <v>0.17471731258362225</v>
       </c>
     </row>
-    <row r="444" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A444" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B444" s="1" t="s">
         <v>15</v>
       </c>
@@ -50100,7 +50715,10 @@
         <v>7.0052860331420455E-2</v>
       </c>
     </row>
-    <row r="445" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A445" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B445" s="1" t="s">
         <v>15</v>
       </c>
@@ -50210,7 +50828,10 @@
         <v>0.25935243120874923</v>
       </c>
     </row>
-    <row r="446" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A446" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B446" s="1" t="s">
         <v>16</v>
       </c>
@@ -50320,7 +50941,10 @@
         <v>0.98941582664048133</v>
       </c>
     </row>
-    <row r="447" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A447" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B447" s="1" t="s">
         <v>16</v>
       </c>
@@ -50430,7 +51054,10 @@
         <v>0.90296230456218785</v>
       </c>
     </row>
-    <row r="448" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A448" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B448" s="1" t="s">
         <v>16</v>
       </c>
@@ -50540,7 +51167,10 @@
         <v>1.0758693487187747</v>
       </c>
     </row>
-    <row r="449" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A449" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B449" s="1" t="s">
         <v>16</v>
       </c>
@@ -50650,7 +51280,10 @@
         <v>1.3088281209084187</v>
       </c>
     </row>
-    <row r="450" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A450" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B450" s="1" t="s">
         <v>16</v>
       </c>
@@ -50760,7 +51393,10 @@
         <v>1.1611239484714606</v>
       </c>
     </row>
-    <row r="451" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A451" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B451" s="1" t="s">
         <v>16</v>
       </c>
@@ -50870,7 +51506,10 @@
         <v>1.4565322933453768</v>
       </c>
     </row>
-    <row r="452" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A452" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B452" s="1" t="s">
         <v>16</v>
       </c>
@@ -50980,7 +51619,10 @@
         <v>4.6118559241203094</v>
       </c>
     </row>
-    <row r="453" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A453" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B453" s="1" t="s">
         <v>16</v>
       </c>
@@ -51090,7 +51732,10 @@
         <v>4.3391341288416951</v>
       </c>
     </row>
-    <row r="454" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A454" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B454" s="1" t="s">
         <v>16</v>
       </c>
@@ -51200,7 +51845,10 @@
         <v>4.9139278892889617</v>
       </c>
     </row>
-    <row r="455" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A455" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B455" s="1" t="s">
         <v>16</v>
       </c>
@@ -51310,7 +51958,10 @@
         <v>4.6118559241203094</v>
       </c>
     </row>
-    <row r="456" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A456" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B456" s="1" t="s">
         <v>16</v>
       </c>
@@ -51420,7 +52071,10 @@
         <v>4.3391341288416951</v>
       </c>
     </row>
-    <row r="457" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A457" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B457" s="1" t="s">
         <v>16</v>
       </c>
@@ -51530,7 +52184,10 @@
         <v>4.9139278892889617</v>
       </c>
     </row>
-    <row r="458" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A458" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B458" s="1" t="s">
         <v>17</v>
       </c>
@@ -51640,7 +52297,10 @@
         <v>1.1510689426190326</v>
       </c>
     </row>
-    <row r="459" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A459" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B459" s="1" t="s">
         <v>17</v>
       </c>
@@ -51750,7 +52410,10 @@
         <v>0.4107305789810558</v>
       </c>
     </row>
-    <row r="460" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A460" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B460" s="1" t="s">
         <v>17</v>
       </c>
@@ -51860,7 +52523,10 @@
         <v>1.9881720110239804</v>
       </c>
     </row>
-    <row r="461" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A461" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B461" s="1" t="s">
         <v>17</v>
       </c>
@@ -51970,7 +52636,10 @@
         <v>0.44076396459904071</v>
       </c>
     </row>
-    <row r="462" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A462" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B462" s="1" t="s">
         <v>17</v>
       </c>
@@ -52080,7 +52749,10 @@
         <v>0.3190916889886779</v>
       </c>
     </row>
-    <row r="463" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A463" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B463" s="1" t="s">
         <v>17</v>
       </c>
@@ -52190,7 +52862,10 @@
         <v>0.56395478983926906</v>
       </c>
     </row>
-    <row r="464" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A464" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B464" s="1" t="s">
         <v>17</v>
       </c>
@@ -52300,7 +52975,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A465" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B465" s="1" t="s">
         <v>17</v>
       </c>
@@ -52410,7 +53088,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A466" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B466" s="1" t="s">
         <v>17</v>
       </c>
@@ -52520,7 +53201,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A467" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B467" s="1" t="s">
         <v>17</v>
       </c>
@@ -52630,7 +53314,10 @@
         <v>1.2363127978799122</v>
       </c>
     </row>
-    <row r="468" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A468" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B468" s="1" t="s">
         <v>17</v>
       </c>
@@ -52740,7 +53427,10 @@
         <v>0.51365592935143156</v>
       </c>
     </row>
-    <row r="469" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A469" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B469" s="1" t="s">
         <v>17</v>
       </c>
@@ -52850,7 +53540,10 @@
         <v>2.0607608836618327</v>
       </c>
     </row>
-    <row r="470" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A470" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B470" s="1" t="s">
         <v>18</v>
       </c>
@@ -52960,7 +53653,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A471" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B471" s="1" t="s">
         <v>18</v>
       </c>
@@ -53070,7 +53766,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A472" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B472" s="1" t="s">
         <v>18</v>
       </c>
@@ -53180,7 +53879,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A473" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B473" s="1" t="s">
         <v>18</v>
       </c>
@@ -53290,7 +53992,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A474" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B474" s="1" t="s">
         <v>18</v>
       </c>
@@ -53400,7 +54105,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A475" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B475" s="1" t="s">
         <v>18</v>
       </c>
@@ -53510,7 +54218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A476" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B476" s="1" t="s">
         <v>18</v>
       </c>
@@ -53620,7 +54331,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A477" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B477" s="1" t="s">
         <v>18</v>
       </c>
@@ -53730,7 +54444,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A478" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B478" s="1" t="s">
         <v>18</v>
       </c>
@@ -53840,7 +54557,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A479" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B479" s="1" t="s">
         <v>18</v>
       </c>
@@ -53950,7 +54670,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A480" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B480" s="1" t="s">
         <v>18</v>
       </c>
@@ -54060,7 +54783,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A481" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B481" s="1" t="s">
         <v>18</v>
       </c>
@@ -54170,7 +54896,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A482" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B482" s="1" t="s">
         <v>5</v>
       </c>
@@ -54280,7 +55009,10 @@
         <v>3.0632481138435637</v>
       </c>
     </row>
-    <row r="483" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A483" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B483" s="1" t="s">
         <v>5</v>
       </c>
@@ -54390,7 +55122,10 @@
         <v>1.8373066473960027</v>
       </c>
     </row>
-    <row r="484" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A484" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B484" s="1" t="s">
         <v>5</v>
       </c>
@@ -54500,7 +55235,10 @@
         <v>4.2228680423709601</v>
       </c>
     </row>
-    <row r="485" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A485" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B485" s="1" t="s">
         <v>5</v>
       </c>
@@ -54610,7 +55348,10 @@
         <v>2.6984787525077354</v>
       </c>
     </row>
-    <row r="486" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A486" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B486" s="1" t="s">
         <v>5</v>
       </c>
@@ -54720,7 +55461,10 @@
         <v>1.9432120643016462</v>
       </c>
     </row>
-    <row r="487" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A487" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B487" s="1" t="s">
         <v>5</v>
       </c>
@@ -54830,7 +55574,10 @@
         <v>3.4552014060056648</v>
       </c>
     </row>
-    <row r="488" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A488" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B488" s="1" t="s">
         <v>5</v>
       </c>
@@ -54940,7 +55687,10 @@
         <v>4.5532326359859407</v>
       </c>
     </row>
-    <row r="489" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A489" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B489" s="1" t="s">
         <v>5</v>
       </c>
@@ -55050,7 +55800,10 @@
         <v>3.6652877781294562</v>
       </c>
     </row>
-    <row r="490" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A490" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B490" s="1" t="s">
         <v>5</v>
       </c>
@@ -55160,7 +55913,10 @@
         <v>5.0640071388819869</v>
       </c>
     </row>
-    <row r="491" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A491" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B491" s="1" t="s">
         <v>5</v>
       </c>
@@ -55270,7 +56026,10 @@
         <v>5.5682573681747227</v>
       </c>
     </row>
-    <row r="492" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A492" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B492" s="1" t="s">
         <v>5</v>
       </c>
@@ -55380,7 +56139,10 @@
         <v>4.0544770066415747</v>
       </c>
     </row>
-    <row r="493" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A493" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B493" s="1" t="s">
         <v>5</v>
       </c>
@@ -55490,7 +56252,10 @@
         <v>6.8640837525757723</v>
       </c>
     </row>
-    <row r="494" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A494" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B494" s="1" t="s">
         <v>15</v>
       </c>
@@ -55600,7 +56365,10 @@
         <v>0.31078947399961682</v>
       </c>
     </row>
-    <row r="495" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A495" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B495" s="1" t="s">
         <v>15</v>
       </c>
@@ -55710,7 +56478,10 @@
         <v>0.16418462425345748</v>
       </c>
     </row>
-    <row r="496" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A496" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B496" s="1" t="s">
         <v>15</v>
       </c>
@@ -55820,7 +56591,10 @@
         <v>0.42032765163848679</v>
       </c>
     </row>
-    <row r="497" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A497" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B497" s="1" t="s">
         <v>15</v>
       </c>
@@ -55930,7 +56704,10 @@
         <v>0.3960053782747523</v>
       </c>
     </row>
-    <row r="498" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A498" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B498" s="1" t="s">
         <v>15</v>
       </c>
@@ -56040,7 +56817,10 @@
         <v>0.19451956117073343</v>
       </c>
     </row>
-    <row r="499" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A499" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B499" s="1" t="s">
         <v>15</v>
       </c>
@@ -56150,7 +56930,10 @@
         <v>0.52003670117679657</v>
       </c>
     </row>
-    <row r="500" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A500" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B500" s="1" t="s">
         <v>15</v>
       </c>
@@ -56260,7 +57043,10 @@
         <v>0.21923397955903751</v>
       </c>
     </row>
-    <row r="501" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A501" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B501" s="1" t="s">
         <v>15</v>
       </c>
@@ -56370,7 +57156,10 @@
         <v>8.7901806196796869E-2</v>
       </c>
     </row>
-    <row r="502" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A502" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B502" s="1" t="s">
         <v>15</v>
       </c>
@@ -56480,7 +57269,10 @@
         <v>0.32543349460570564</v>
       </c>
     </row>
-    <row r="503" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A503" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B503" s="1" t="s">
         <v>15</v>
       </c>
@@ -56590,7 +57382,10 @@
         <v>0.17471731258362225</v>
       </c>
     </row>
-    <row r="504" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A504" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B504" s="1" t="s">
         <v>15</v>
       </c>
@@ -56700,7 +57495,10 @@
         <v>7.0052860331420455E-2</v>
       </c>
     </row>
-    <row r="505" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A505" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B505" s="1" t="s">
         <v>15</v>
       </c>
@@ -56810,7 +57608,10 @@
         <v>0.25935243120874923</v>
       </c>
     </row>
-    <row r="506" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A506" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B506" s="1" t="s">
         <v>16</v>
       </c>
@@ -56920,7 +57721,10 @@
         <v>1.6929451916654938</v>
       </c>
     </row>
-    <row r="507" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A507" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B507" s="1" t="s">
         <v>16</v>
       </c>
@@ -57030,7 +57834,10 @@
         <v>1.33867426221815</v>
       </c>
     </row>
-    <row r="508" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A508" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B508" s="1" t="s">
         <v>16</v>
       </c>
@@ -57140,7 +57947,10 @@
         <v>1.9092625367412739</v>
       </c>
     </row>
-    <row r="509" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A509" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B509" s="1" t="s">
         <v>16</v>
       </c>
@@ -57250,7 +58060,10 @@
         <v>1.9869305257627685</v>
       </c>
     </row>
-    <row r="510" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A510" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B510" s="1" t="s">
         <v>16</v>
       </c>
@@ -57360,7 +58173,10 @@
         <v>1.4871321032815499</v>
       </c>
     </row>
-    <row r="511" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A511" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B511" s="1" t="s">
         <v>16</v>
       </c>
@@ -57470,7 +58286,10 @@
         <v>2.5242585582559305</v>
       </c>
     </row>
-    <row r="512" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A512" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B512" s="1" t="s">
         <v>16</v>
       </c>
@@ -57580,7 +58399,10 @@
         <v>4.1572272577111882</v>
       </c>
     </row>
-    <row r="513" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A513" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B513" s="1" t="s">
         <v>16</v>
       </c>
@@ -57690,7 +58512,10 @@
         <v>3.4707682169587226</v>
       </c>
     </row>
-    <row r="514" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A514" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B514" s="1" t="s">
         <v>16</v>
       </c>
@@ -57800,7 +58625,10 @@
         <v>4.5439704377051902</v>
       </c>
     </row>
-    <row r="515" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A515" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B515" s="1" t="s">
         <v>16</v>
       </c>
@@ -57910,7 +58738,10 @@
         <v>4.1572272577111882</v>
       </c>
     </row>
-    <row r="516" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A516" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B516" s="1" t="s">
         <v>16</v>
       </c>
@@ -58020,7 +58851,10 @@
         <v>3.4707682169587226</v>
       </c>
     </row>
-    <row r="517" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A517" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B517" s="1" t="s">
         <v>16</v>
       </c>
@@ -58130,7 +58964,10 @@
         <v>4.5439704377051902</v>
       </c>
     </row>
-    <row r="518" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A518" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B518" s="1" t="s">
         <v>17</v>
       </c>
@@ -58240,7 +59077,10 @@
         <v>1.1510689426190326</v>
       </c>
     </row>
-    <row r="519" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A519" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B519" s="1" t="s">
         <v>17</v>
       </c>
@@ -58350,7 +59190,10 @@
         <v>0.4107305789810558</v>
       </c>
     </row>
-    <row r="520" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A520" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B520" s="1" t="s">
         <v>17</v>
       </c>
@@ -58460,7 +59303,10 @@
         <v>1.9881720110239804</v>
       </c>
     </row>
-    <row r="521" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A521" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B521" s="1" t="s">
         <v>17</v>
       </c>
@@ -58570,7 +59416,10 @@
         <v>0.40075875274535017</v>
       </c>
     </row>
-    <row r="522" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A522" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B522" s="1" t="s">
         <v>17</v>
       </c>
@@ -58680,7 +59529,10 @@
         <v>0.29189533676663887</v>
       </c>
     </row>
-    <row r="523" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A523" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B523" s="1" t="s">
         <v>17</v>
       </c>
@@ -58790,7 +59642,10 @@
         <v>0.51061519611124773</v>
       </c>
     </row>
-    <row r="524" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A524" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B524" s="1" t="s">
         <v>17</v>
       </c>
@@ -58900,7 +59755,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A525" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B525" s="1" t="s">
         <v>17</v>
       </c>
@@ -59010,7 +59868,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A526" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B526" s="1" t="s">
         <v>17</v>
       </c>
@@ -59120,7 +59981,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A527" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B527" s="1" t="s">
         <v>17</v>
       </c>
@@ -59230,7 +60094,10 @@
         <v>1.2363127978799122</v>
       </c>
     </row>
-    <row r="528" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A528" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B528" s="1" t="s">
         <v>17</v>
       </c>
@@ -59340,7 +60207,10 @@
         <v>0.51365592935143156</v>
       </c>
     </row>
-    <row r="529" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A529" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B529" s="1" t="s">
         <v>17</v>
       </c>
@@ -59450,7 +60320,10 @@
         <v>2.0607608836618327</v>
       </c>
     </row>
-    <row r="530" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A530" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B530" s="1" t="s">
         <v>18</v>
       </c>
@@ -59560,7 +60433,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A531" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B531" s="1" t="s">
         <v>18</v>
       </c>
@@ -59670,7 +60546,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A532" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B532" s="1" t="s">
         <v>18</v>
       </c>
@@ -59780,7 +60659,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="533" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A533" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B533" s="1" t="s">
         <v>18</v>
       </c>
@@ -59890,7 +60772,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="534" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A534" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B534" s="1" t="s">
         <v>18</v>
       </c>
@@ -60000,7 +60885,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="535" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A535" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B535" s="1" t="s">
         <v>18</v>
       </c>
@@ -60110,7 +60998,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="536" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A536" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B536" s="1" t="s">
         <v>18</v>
       </c>
@@ -60220,7 +61111,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="537" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A537" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B537" s="1" t="s">
         <v>18</v>
       </c>
@@ -60330,7 +61224,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="538" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A538" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B538" s="1" t="s">
         <v>18</v>
       </c>
@@ -60440,7 +61337,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A539" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B539" s="1" t="s">
         <v>18</v>
       </c>
@@ -60550,7 +61450,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="540" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A540" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B540" s="1" t="s">
         <v>18</v>
       </c>
@@ -60660,7 +61563,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="541" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A541" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B541" s="1" t="s">
         <v>18</v>
       </c>
@@ -60770,7 +61676,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="542" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A542" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B542" s="1" t="s">
         <v>5</v>
       </c>
@@ -60880,7 +61789,10 @@
         <v>2.3700172487900244</v>
       </c>
     </row>
-    <row r="543" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="543" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A543" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B543" s="1" t="s">
         <v>5</v>
       </c>
@@ -60990,7 +61902,10 @@
         <v>1.5252253529135675</v>
       </c>
     </row>
-    <row r="544" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A544" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B544" s="1" t="s">
         <v>5</v>
       </c>
@@ -61100,7 +62015,10 @@
         <v>3.3115738494334521</v>
       </c>
     </row>
-    <row r="545" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="545" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A545" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B545" s="1" t="s">
         <v>5</v>
       </c>
@@ -61210,7 +62128,10 @@
         <v>1.6337035252980976</v>
       </c>
     </row>
-    <row r="546" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="546" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A546" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B546" s="1" t="s">
         <v>5</v>
       </c>
@@ -61320,7 +62241,10 @@
         <v>1.3617479338444052</v>
       </c>
     </row>
-    <row r="547" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="547" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A547" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B547" s="1" t="s">
         <v>5</v>
       </c>
@@ -61430,7 +62354,10 @@
         <v>1.9030702091311189</v>
       </c>
     </row>
-    <row r="548" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="548" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A548" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B548" s="1" t="s">
         <v>5</v>
       </c>
@@ -61540,7 +62467,10 @@
         <v>3.3664957347744697</v>
       </c>
     </row>
-    <row r="549" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="549" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A549" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B549" s="1" t="s">
         <v>5</v>
       </c>
@@ -61650,7 +62580,10 @@
         <v>2.9499383851882066</v>
       </c>
     </row>
-    <row r="550" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A550" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B550" s="1" t="s">
         <v>5</v>
       </c>
@@ -61760,7 +62693,10 @@
         <v>3.809871027328112</v>
       </c>
     </row>
-    <row r="551" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="551" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A551" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B551" s="1" t="s">
         <v>5</v>
       </c>
@@ -61870,7 +62806,10 @@
         <v>4.5450105647000765</v>
       </c>
     </row>
-    <row r="552" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="552" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A552" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B552" s="1" t="s">
         <v>5</v>
       </c>
@@ -61980,7 +62919,10 @@
         <v>3.4681072802646273</v>
       </c>
     </row>
-    <row r="553" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="553" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A553" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B553" s="1" t="s">
         <v>5</v>
       </c>
@@ -62090,7 +63032,10 @@
         <v>5.7559578107494769</v>
       </c>
     </row>
-    <row r="554" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="554" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A554" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B554" s="1" t="s">
         <v>15</v>
       </c>
@@ -62200,7 +63145,10 @@
         <v>0.22242859445727503</v>
       </c>
     </row>
-    <row r="555" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="555" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A555" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B555" s="1" t="s">
         <v>15</v>
       </c>
@@ -62310,7 +63258,10 @@
         <v>0.13961783441136863</v>
       </c>
     </row>
-    <row r="556" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="556" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A556" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B556" s="1" t="s">
         <v>15</v>
       </c>
@@ -62420,7 +63371,10 @@
         <v>0.30082385855059912</v>
       </c>
     </row>
-    <row r="557" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="557" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A557" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B557" s="1" t="s">
         <v>15</v>
       </c>
@@ -62530,7 +63484,10 @@
         <v>0.18159327622890006</v>
       </c>
     </row>
-    <row r="558" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="558" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A558" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B558" s="1" t="s">
         <v>15</v>
       </c>
@@ -62640,7 +63597,10 @@
         <v>0.11928234254960568</v>
       </c>
     </row>
-    <row r="559" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="559" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A559" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B559" s="1" t="s">
         <v>15</v>
       </c>
@@ -62750,7 +63710,10 @@
         <v>0.23846940851506282</v>
       </c>
     </row>
-    <row r="560" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="560" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A560" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B560" s="1" t="s">
         <v>15</v>
       </c>
@@ -62860,7 +63823,10 @@
         <v>0.18205192393322767</v>
       </c>
     </row>
-    <row r="561" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="561" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A561" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B561" s="1" t="s">
         <v>15</v>
       </c>
@@ -62970,7 +63936,10 @@
         <v>0.18205192393322767</v>
       </c>
     </row>
-    <row r="562" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="562" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A562" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B562" s="1" t="s">
         <v>15</v>
       </c>
@@ -63080,7 +64049,10 @@
         <v>0.18205192393322767</v>
       </c>
     </row>
-    <row r="563" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="563" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A563" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B563" s="1" t="s">
         <v>15</v>
       </c>
@@ -63190,7 +64162,10 @@
         <v>0.12379530827459483</v>
       </c>
     </row>
-    <row r="564" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="564" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A564" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B564" s="1" t="s">
         <v>15</v>
       </c>
@@ -63300,7 +64275,10 @@
         <v>0.12379530827459483</v>
       </c>
     </row>
-    <row r="565" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="565" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A565" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B565" s="1" t="s">
         <v>15</v>
       </c>
@@ -63410,7 +64388,10 @@
         <v>0.12379530827459483</v>
       </c>
     </row>
-    <row r="566" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="566" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A566" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B566" s="1" t="s">
         <v>16</v>
       </c>
@@ -63520,7 +64501,10 @@
         <v>1.0368963822377644</v>
       </c>
     </row>
-    <row r="567" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="567" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A567" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B567" s="1" t="s">
         <v>16</v>
       </c>
@@ -63630,7 +64614,10 @@
         <v>0.93244284999928406</v>
       </c>
     </row>
-    <row r="568" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="568" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A568" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B568" s="1" t="s">
         <v>16</v>
       </c>
@@ -63740,7 +64727,10 @@
         <v>1.1413499144762442</v>
       </c>
     </row>
-    <row r="569" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="569" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A569" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B569" s="1" t="s">
         <v>16</v>
       </c>
@@ -63850,7 +64840,10 @@
         <v>0.99440877097264779</v>
       </c>
     </row>
-    <row r="570" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="570" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A570" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B570" s="1" t="s">
         <v>16</v>
       </c>
@@ -63960,7 +64953,10 @@
         <v>0.92211693806263584</v>
       </c>
     </row>
-    <row r="571" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="571" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A571" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B571" s="1" t="s">
         <v>16</v>
       </c>
@@ -64070,7 +65066,10 @@
         <v>1.0667006038826599</v>
       </c>
     </row>
-    <row r="572" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="572" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A572" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B572" s="1" t="s">
         <v>16</v>
       </c>
@@ -64180,7 +65179,10 @@
         <v>3.1849024585455696</v>
       </c>
     </row>
-    <row r="573" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="573" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A573" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B573" s="1" t="s">
         <v>16</v>
       </c>
@@ -64290,7 +65292,10 @@
         <v>2.8306560426386009</v>
       </c>
     </row>
-    <row r="574" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="574" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A574" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B574" s="1" t="s">
         <v>16</v>
       </c>
@@ -64400,7 +65405,10 @@
         <v>3.5714016188130491</v>
       </c>
     </row>
-    <row r="575" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="575" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A575" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B575" s="1" t="s">
         <v>16</v>
       </c>
@@ -64510,7 +65518,10 @@
         <v>3.1849024585455696</v>
       </c>
     </row>
-    <row r="576" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="576" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A576" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B576" s="1" t="s">
         <v>16</v>
       </c>
@@ -64620,7 +65631,10 @@
         <v>2.8306560426386009</v>
       </c>
     </row>
-    <row r="577" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="577" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A577" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B577" s="1" t="s">
         <v>16</v>
       </c>
@@ -64730,7 +65744,10 @@
         <v>3.5714016188130491</v>
       </c>
     </row>
-    <row r="578" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="578" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A578" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B578" s="1" t="s">
         <v>17</v>
       </c>
@@ -64840,7 +65857,10 @@
         <v>1.1510689426190326</v>
       </c>
     </row>
-    <row r="579" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="579" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A579" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B579" s="1" t="s">
         <v>17</v>
       </c>
@@ -64950,7 +65970,10 @@
         <v>0.4107305789810558</v>
       </c>
     </row>
-    <row r="580" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="580" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A580" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B580" s="1" t="s">
         <v>17</v>
       </c>
@@ -65060,7 +66083,10 @@
         <v>1.9881720110239804</v>
       </c>
     </row>
-    <row r="581" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="581" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A581" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B581" s="1" t="s">
         <v>17</v>
       </c>
@@ -65170,7 +66196,10 @@
         <v>0.41686615986817471</v>
       </c>
     </row>
-    <row r="582" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="582" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A582" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B582" s="1" t="s">
         <v>17</v>
       </c>
@@ -65280,7 +66309,10 @@
         <v>0.30001316137040079</v>
       </c>
     </row>
-    <row r="583" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="583" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A583" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B583" s="1" t="s">
         <v>17</v>
       </c>
@@ -65390,7 +66422,10 @@
         <v>0.53554574669785981</v>
       </c>
     </row>
-    <row r="584" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="584" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A584" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B584" s="1" t="s">
         <v>17</v>
       </c>
@@ -65500,7 +66535,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="585" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A585" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B585" s="1" t="s">
         <v>17</v>
       </c>
@@ -65610,7 +66648,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="586" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A586" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B586" s="1" t="s">
         <v>17</v>
       </c>
@@ -65720,7 +66761,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="587" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A587" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B587" s="1" t="s">
         <v>17</v>
       </c>
@@ -65830,7 +66874,10 @@
         <v>1.2363127978799122</v>
       </c>
     </row>
-    <row r="588" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="588" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A588" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B588" s="1" t="s">
         <v>17</v>
       </c>
@@ -65940,7 +66987,10 @@
         <v>0.51365592935143156</v>
       </c>
     </row>
-    <row r="589" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="589" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A589" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B589" s="1" t="s">
         <v>17</v>
       </c>
@@ -66050,7 +67100,10 @@
         <v>2.0607608836618327</v>
       </c>
     </row>
-    <row r="590" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="590" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A590" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B590" s="1" t="s">
         <v>18</v>
       </c>
@@ -66160,7 +67213,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="591" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A591" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B591" s="1" t="s">
         <v>18</v>
       </c>
@@ -66270,7 +67326,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="592" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A592" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B592" s="1" t="s">
         <v>18</v>
       </c>
@@ -66380,7 +67439,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="593" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A593" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B593" s="1" t="s">
         <v>18</v>
       </c>
@@ -66490,7 +67552,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="594" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A594" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B594" s="1" t="s">
         <v>18</v>
       </c>
@@ -66600,7 +67665,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="595" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A595" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B595" s="1" t="s">
         <v>18</v>
       </c>
@@ -66710,7 +67778,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="596" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A596" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B596" s="1" t="s">
         <v>18</v>
       </c>
@@ -66820,7 +67891,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="597" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A597" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B597" s="1" t="s">
         <v>18</v>
       </c>
@@ -66930,7 +68004,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="598" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A598" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B598" s="1" t="s">
         <v>18</v>
       </c>
@@ -67040,7 +68117,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="599" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A599" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B599" s="1" t="s">
         <v>18</v>
       </c>
@@ -67150,7 +68230,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="600" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A600" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B600" s="1" t="s">
         <v>18</v>
       </c>
@@ -67260,7 +68343,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="601" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A601" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B601" s="1" t="s">
         <v>18</v>
       </c>
@@ -67370,7 +68456,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="602" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A602" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B602" s="1" t="s">
         <v>5</v>
       </c>
@@ -67480,7 +68569,10 @@
         <v>2.4134805701714233</v>
       </c>
     </row>
-    <row r="603" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="603" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A603" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B603" s="1" t="s">
         <v>5</v>
       </c>
@@ -67590,7 +68682,10 @@
         <v>1.4231504778110879</v>
       </c>
     </row>
-    <row r="604" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="604" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A604" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B604" s="1" t="s">
         <v>5</v>
       </c>
@@ -67700,7 +68795,10 @@
         <v>3.4692795335064259</v>
       </c>
     </row>
-    <row r="605" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="605" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A605" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B605" s="1" t="s">
         <v>5</v>
       </c>
@@ -67810,7 +68908,10 @@
         <v>2.1119518520843972</v>
       </c>
     </row>
-    <row r="606" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="606" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A606" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B606" s="1" t="s">
         <v>5</v>
       </c>
@@ -67920,7 +69021,10 @@
         <v>1.7054254076714093</v>
       </c>
     </row>
-    <row r="607" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="607" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A607" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B607" s="1" t="s">
         <v>5</v>
       </c>
@@ -68030,7 +69134,10 @@
         <v>2.5105610479603713</v>
       </c>
     </row>
-    <row r="608" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="608" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A608" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B608" s="1" t="s">
         <v>5</v>
       </c>
@@ -68140,7 +69247,10 @@
         <v>5.007861302395062</v>
       </c>
     </row>
-    <row r="609" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="609" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A609" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B609" s="1" t="s">
         <v>5</v>
       </c>
@@ -68250,7 +69360,10 @@
         <v>4.5679806713954996</v>
       </c>
     </row>
-    <row r="610" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="610" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A610" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B610" s="1" t="s">
         <v>5</v>
       </c>
@@ -68360,7 +69473,10 @@
         <v>5.4339645904657585</v>
       </c>
     </row>
-    <row r="611" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="611" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A611" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B611" s="1" t="s">
         <v>5</v>
       </c>
@@ -68470,7 +69586,10 @@
         <v>6.022886034583844</v>
       </c>
     </row>
-    <row r="612" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="612" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A612" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B612" s="1" t="s">
         <v>5</v>
       </c>
@@ -68580,7 +69699,10 @@
         <v>4.9228429185245473</v>
       </c>
     </row>
-    <row r="613" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="613" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A613" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B613" s="1" t="s">
         <v>5</v>
       </c>
@@ -68690,7 +69812,10 @@
         <v>7.2340412041595439</v>
       </c>
     </row>
-    <row r="614" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="614" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A614" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B614" s="1" t="s">
         <v>15</v>
       </c>
@@ -68800,7 +69925,10 @@
         <v>0.36235976657693764</v>
       </c>
     </row>
-    <row r="615" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="615" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A615" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B615" s="1" t="s">
         <v>15</v>
       </c>
@@ -68910,7 +70038,10 @@
         <v>0.2252097702112707</v>
       </c>
     </row>
-    <row r="616" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="616" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A616" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B616" s="1" t="s">
         <v>15</v>
       </c>
@@ -69020,7 +70151,10 @@
         <v>0.49007396477572546</v>
       </c>
     </row>
-    <row r="617" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="617" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A617" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B617" s="1" t="s">
         <v>15</v>
       </c>
@@ -69130,7 +70264,10 @@
         <v>0.3960053782747523</v>
       </c>
     </row>
-    <row r="618" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="618" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A618" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B618" s="1" t="s">
         <v>15</v>
       </c>
@@ -69240,7 +70377,10 @@
         <v>0.2288465425538041</v>
       </c>
     </row>
-    <row r="619" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="619" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A619" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B619" s="1" t="s">
         <v>15</v>
       </c>
@@ -69350,7 +70490,10 @@
         <v>0.52003670117679657</v>
       </c>
     </row>
-    <row r="620" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="620" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A620" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B620" s="1" t="s">
         <v>15</v>
       </c>
@@ -69460,7 +70603,10 @@
         <v>0.27299580091190973</v>
       </c>
     </row>
-    <row r="621" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="621" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A621" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B621" s="1" t="s">
         <v>15</v>
       </c>
@@ -69570,7 +70716,10 @@
         <v>0.10945759426784445</v>
       </c>
     </row>
-    <row r="622" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="622" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A622" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B622" s="1" t="s">
         <v>15</v>
       </c>
@@ -69680,7 +70829,10 @@
         <v>0.40523817376367061</v>
       </c>
     </row>
-    <row r="623" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="623" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A623" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B623" s="1" t="s">
         <v>15</v>
       </c>
@@ -69790,7 +70942,10 @@
         <v>0.17471731258362225</v>
       </c>
     </row>
-    <row r="624" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="624" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A624" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B624" s="1" t="s">
         <v>15</v>
       </c>
@@ -69900,7 +71055,10 @@
         <v>7.0052860331420455E-2</v>
       </c>
     </row>
-    <row r="625" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="625" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A625" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B625" s="1" t="s">
         <v>15</v>
       </c>
@@ -70010,7 +71168,10 @@
         <v>0.25935243120874923</v>
       </c>
     </row>
-    <row r="626" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="626" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A626" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B626" s="1" t="s">
         <v>16</v>
       </c>
@@ -70120,7 +71281,10 @@
         <v>0.98941582664048133</v>
       </c>
     </row>
-    <row r="627" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="627" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A627" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B627" s="1" t="s">
         <v>16</v>
       </c>
@@ -70230,7 +71394,10 @@
         <v>0.90296230456218785</v>
       </c>
     </row>
-    <row r="628" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="628" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A628" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B628" s="1" t="s">
         <v>16</v>
       </c>
@@ -70340,7 +71507,10 @@
         <v>1.0758693487187747</v>
       </c>
     </row>
-    <row r="629" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="629" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A629" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B629" s="1" t="s">
         <v>16</v>
       </c>
@@ -70450,7 +71620,10 @@
         <v>1.3088281209084187</v>
       </c>
     </row>
-    <row r="630" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="630" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A630" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B630" s="1" t="s">
         <v>16</v>
       </c>
@@ -70560,7 +71733,10 @@
         <v>1.1611239484714606</v>
       </c>
     </row>
-    <row r="631" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="631" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A631" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B631" s="1" t="s">
         <v>16</v>
       </c>
@@ -70670,7 +71846,10 @@
         <v>1.4565322933453768</v>
       </c>
     </row>
-    <row r="632" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="632" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A632" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B632" s="1" t="s">
         <v>16</v>
       </c>
@@ -70780,7 +71959,10 @@
         <v>4.6118559241203094</v>
       </c>
     </row>
-    <row r="633" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="633" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A633" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B633" s="1" t="s">
         <v>16</v>
       </c>
@@ -70890,7 +72072,10 @@
         <v>4.3391341288416951</v>
       </c>
     </row>
-    <row r="634" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="634" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A634" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B634" s="1" t="s">
         <v>16</v>
       </c>
@@ -71000,7 +72185,10 @@
         <v>4.9139278892889617</v>
       </c>
     </row>
-    <row r="635" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="635" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A635" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B635" s="1" t="s">
         <v>16</v>
       </c>
@@ -71110,7 +72298,10 @@
         <v>4.6118559241203094</v>
       </c>
     </row>
-    <row r="636" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="636" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A636" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B636" s="1" t="s">
         <v>16</v>
       </c>
@@ -71220,7 +72411,10 @@
         <v>4.3391341288416951</v>
       </c>
     </row>
-    <row r="637" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="637" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A637" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B637" s="1" t="s">
         <v>16</v>
       </c>
@@ -71330,7 +72524,10 @@
         <v>4.9139278892889617</v>
       </c>
     </row>
-    <row r="638" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="638" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A638" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B638" s="1" t="s">
         <v>17</v>
       </c>
@@ -71440,7 +72637,10 @@
         <v>1.1510689426190326</v>
       </c>
     </row>
-    <row r="639" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="639" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A639" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B639" s="1" t="s">
         <v>17</v>
       </c>
@@ -71550,7 +72750,10 @@
         <v>0.4107305789810558</v>
       </c>
     </row>
-    <row r="640" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="640" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A640" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B640" s="1" t="s">
         <v>17</v>
       </c>
@@ -71660,7 +72863,10 @@
         <v>1.9881720110239804</v>
       </c>
     </row>
-    <row r="641" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="641" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A641" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B641" s="1" t="s">
         <v>17</v>
       </c>
@@ -71770,7 +72976,10 @@
         <v>0.44076396459904071</v>
       </c>
     </row>
-    <row r="642" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="642" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A642" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B642" s="1" t="s">
         <v>17</v>
       </c>
@@ -71880,7 +73089,10 @@
         <v>0.3190916889886779</v>
       </c>
     </row>
-    <row r="643" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="643" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A643" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B643" s="1" t="s">
         <v>17</v>
       </c>
@@ -71990,7 +73202,10 @@
         <v>0.56395478983926906</v>
       </c>
     </row>
-    <row r="644" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="644" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A644" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B644" s="1" t="s">
         <v>17</v>
       </c>
@@ -72100,7 +73315,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="645" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A645" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B645" s="1" t="s">
         <v>17</v>
       </c>
@@ -72210,7 +73428,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="646" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A646" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B646" s="1" t="s">
         <v>17</v>
       </c>
@@ -72320,7 +73541,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="647" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A647" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B647" s="1" t="s">
         <v>17</v>
       </c>
@@ -72430,7 +73654,10 @@
         <v>1.2363127978799122</v>
       </c>
     </row>
-    <row r="648" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="648" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A648" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B648" s="1" t="s">
         <v>17</v>
       </c>
@@ -72540,7 +73767,10 @@
         <v>0.51365592935143156</v>
       </c>
     </row>
-    <row r="649" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="649" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A649" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B649" s="1" t="s">
         <v>17</v>
       </c>
@@ -72650,7 +73880,10 @@
         <v>2.0607608836618327</v>
       </c>
     </row>
-    <row r="650" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="650" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A650" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B650" s="1" t="s">
         <v>18</v>
       </c>
@@ -72760,7 +73993,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="651" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A651" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B651" s="1" t="s">
         <v>18</v>
       </c>
@@ -72870,7 +74106,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="652" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A652" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B652" s="1" t="s">
         <v>18</v>
       </c>
@@ -72980,7 +74219,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="653" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A653" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B653" s="1" t="s">
         <v>18</v>
       </c>
@@ -73090,7 +74332,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="654" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A654" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B654" s="1" t="s">
         <v>18</v>
       </c>
@@ -73200,7 +74445,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="655" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A655" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B655" s="1" t="s">
         <v>18</v>
       </c>
@@ -73310,7 +74558,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="656" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A656" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B656" s="1" t="s">
         <v>18</v>
       </c>
@@ -73420,7 +74671,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="657" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A657" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B657" s="1" t="s">
         <v>18</v>
       </c>
@@ -73530,7 +74784,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="658" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A658" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B658" s="1" t="s">
         <v>18</v>
       </c>
@@ -73640,7 +74897,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="659" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A659" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B659" s="1" t="s">
         <v>18</v>
       </c>
@@ -73750,7 +75010,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="660" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A660" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B660" s="1" t="s">
         <v>18</v>
       </c>
@@ -73860,7 +75123,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="2:37" x14ac:dyDescent="0.5">
+    <row r="661" spans="1:37" x14ac:dyDescent="0.5">
+      <c r="A661" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B661" s="1" t="s">
         <v>18</v>
       </c>
@@ -73980,13 +75246,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9C25F9-6A96-4074-A33F-02FD5337B408}">
   <dimension ref="A1:AK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.05859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.46875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.17578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.5">
@@ -79532,6 +80801,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B4ECEDC51D0484091AFD4177D66ED73" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cc653c178d9ffcb24786b6a9d53371f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b44fa922-a688-4301-8945-67f7597c9c55" xmlns:ns3="f6f44a7d-d6f5-4042-8792-19cb5f90fb06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3af53c5407280ad7b07c166bc7f6511a" ns2:_="" ns3:_="">
     <xsd:import namespace="b44fa922-a688-4301-8945-67f7597c9c55"/>
@@ -79748,26 +81032,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C3E66C-4888-41E5-96C0-EB22C666EC41}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{247FB0DF-C867-45D7-917B-3937A21D5899}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -79776,10 +81041,29 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{974C7000-1FAA-4C2F-821A-D2E391109C1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C3E66C-4888-41E5-96C0-EB22C666EC41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b44fa922-a688-4301-8945-67f7597c9c55"/>
+    <ds:schemaRef ds:uri="f6f44a7d-d6f5-4042-8792-19cb5f90fb06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>